--- a/Code/Results/Cases/Case_4_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004878476315699</v>
+        <v>1.032618576973103</v>
       </c>
       <c r="D2">
-        <v>1.020340147543936</v>
+        <v>1.035584673880938</v>
       </c>
       <c r="E2">
-        <v>1.013021429600416</v>
+        <v>1.036259756061105</v>
       </c>
       <c r="F2">
-        <v>1.01000788271062</v>
+        <v>1.042237979673527</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042782350719446</v>
+        <v>1.036790426248109</v>
       </c>
       <c r="J2">
-        <v>1.026914245682182</v>
+        <v>1.037747804950852</v>
       </c>
       <c r="K2">
-        <v>1.031523202090449</v>
+        <v>1.038380858729643</v>
       </c>
       <c r="L2">
-        <v>1.024302287673714</v>
+        <v>1.039054007935447</v>
       </c>
       <c r="M2">
-        <v>1.021329530581335</v>
+        <v>1.045015232607604</v>
       </c>
       <c r="N2">
-        <v>1.028372581699763</v>
+        <v>1.039221525865245</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009222735249254</v>
+        <v>1.033531309452188</v>
       </c>
       <c r="D3">
-        <v>1.023434602199293</v>
+        <v>1.036254382546084</v>
       </c>
       <c r="E3">
-        <v>1.016866839685169</v>
+        <v>1.037120419450005</v>
       </c>
       <c r="F3">
-        <v>1.015160043295564</v>
+        <v>1.043394940543585</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044100145047139</v>
+        <v>1.037018912295743</v>
       </c>
       <c r="J3">
-        <v>1.029465098206756</v>
+        <v>1.038303094551655</v>
       </c>
       <c r="K3">
-        <v>1.033776162611197</v>
+        <v>1.038860363994916</v>
       </c>
       <c r="L3">
-        <v>1.027288360611759</v>
+        <v>1.03972410036771</v>
       </c>
       <c r="M3">
-        <v>1.025602554701459</v>
+        <v>1.045982077105118</v>
       </c>
       <c r="N3">
-        <v>1.030927056727506</v>
+        <v>1.039777604040948</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011977035817869</v>
+        <v>1.03412229751514</v>
       </c>
       <c r="D4">
-        <v>1.02539950502348</v>
+        <v>1.036688034300578</v>
       </c>
       <c r="E4">
-        <v>1.019310126485382</v>
+        <v>1.037678057693334</v>
       </c>
       <c r="F4">
-        <v>1.018428311107578</v>
+        <v>1.044144330654435</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044927012858233</v>
+        <v>1.037165775952123</v>
       </c>
       <c r="J4">
-        <v>1.031079251748776</v>
+        <v>1.038662168026167</v>
       </c>
       <c r="K4">
-        <v>1.0352007484299</v>
+        <v>1.03917026027459</v>
       </c>
       <c r="L4">
-        <v>1.029180950314059</v>
+        <v>1.040157786149208</v>
       </c>
       <c r="M4">
-        <v>1.02830929620282</v>
+        <v>1.046607872162349</v>
       </c>
       <c r="N4">
-        <v>1.032543502552703</v>
+        <v>1.040137187440981</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01312183919688</v>
+        <v>1.034370841174559</v>
       </c>
       <c r="D5">
-        <v>1.026216871377717</v>
+        <v>1.036870413396332</v>
       </c>
       <c r="E5">
-        <v>1.020326889624872</v>
+        <v>1.037912662732144</v>
       </c>
       <c r="F5">
-        <v>1.01978720764585</v>
+        <v>1.044459555787061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045268594506843</v>
+        <v>1.037227281878971</v>
       </c>
       <c r="J5">
-        <v>1.031749388818381</v>
+        <v>1.038813065221411</v>
       </c>
       <c r="K5">
-        <v>1.035791918531127</v>
+        <v>1.039300449924562</v>
       </c>
       <c r="L5">
-        <v>1.029967414729981</v>
+        <v>1.040340128528706</v>
       </c>
       <c r="M5">
-        <v>1.029433778874754</v>
+        <v>1.046870999690087</v>
       </c>
       <c r="N5">
-        <v>1.033214591293812</v>
+        <v>1.040288298927549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013313301652977</v>
+        <v>1.034412578134417</v>
       </c>
       <c r="D6">
-        <v>1.026353609712819</v>
+        <v>1.036901039829353</v>
       </c>
       <c r="E6">
-        <v>1.020497009417281</v>
+        <v>1.03795206411455</v>
       </c>
       <c r="F6">
-        <v>1.020014504832768</v>
+        <v>1.044512494113498</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045325598003122</v>
+        <v>1.037237595169001</v>
       </c>
       <c r="J6">
-        <v>1.031861419566338</v>
+        <v>1.038838398141889</v>
       </c>
       <c r="K6">
-        <v>1.035890732014143</v>
+        <v>1.039322303994885</v>
       </c>
       <c r="L6">
-        <v>1.030098935673803</v>
+        <v>1.040370745813237</v>
       </c>
       <c r="M6">
-        <v>1.029621810884199</v>
+        <v>1.046915182489836</v>
       </c>
       <c r="N6">
-        <v>1.033326781138281</v>
+        <v>1.04031366782368</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01199238361573</v>
+        <v>1.03412561820618</v>
       </c>
       <c r="D7">
-        <v>1.025410460454441</v>
+        <v>1.036690470978016</v>
       </c>
       <c r="E7">
-        <v>1.019323752894796</v>
+        <v>1.037681191815448</v>
       </c>
       <c r="F7">
-        <v>1.018446527240058</v>
+        <v>1.044148541995019</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04493160060202</v>
+        <v>1.037166598723437</v>
       </c>
       <c r="J7">
-        <v>1.031088239025332</v>
+        <v>1.038664184547982</v>
       </c>
       <c r="K7">
-        <v>1.03520867773446</v>
+        <v>1.03917200023264</v>
       </c>
       <c r="L7">
-        <v>1.029191494775529</v>
+        <v>1.040160222536161</v>
       </c>
       <c r="M7">
-        <v>1.028324373728756</v>
+        <v>1.046611387915518</v>
       </c>
       <c r="N7">
-        <v>1.032552502592222</v>
+        <v>1.040139206826488</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006358678349822</v>
+        <v>1.032926958089893</v>
       </c>
       <c r="D8">
-        <v>1.021393852422561</v>
+        <v>1.035810941071202</v>
       </c>
       <c r="E8">
-        <v>1.014330537737995</v>
+        <v>1.036550469105514</v>
       </c>
       <c r="F8">
-        <v>1.011763020250709</v>
+        <v>1.042628822729855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043233147796381</v>
+        <v>1.03686784726237</v>
       </c>
       <c r="J8">
-        <v>1.027784023144305</v>
+        <v>1.037935516068383</v>
       </c>
       <c r="K8">
-        <v>1.032291623138599</v>
+        <v>1.038542987083995</v>
       </c>
       <c r="L8">
-        <v>1.025319829555792</v>
+        <v>1.039280449361676</v>
       </c>
       <c r="M8">
-        <v>1.022785976980788</v>
+        <v>1.045341944368662</v>
       </c>
       <c r="N8">
-        <v>1.029243594345645</v>
+        <v>1.039409503554068</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9959742895053146</v>
+        <v>1.030817784683126</v>
       </c>
       <c r="D9">
-        <v>1.014016277962786</v>
+        <v>1.034263490777815</v>
       </c>
       <c r="E9">
-        <v>1.00517017568788</v>
+        <v>1.034563646256555</v>
       </c>
       <c r="F9">
-        <v>0.9994551926251398</v>
+        <v>1.039956705008889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040035212345152</v>
+        <v>1.036333906727899</v>
       </c>
       <c r="J9">
-        <v>1.021670011308967</v>
+        <v>1.036649736138475</v>
       </c>
       <c r="K9">
-        <v>1.026885971474508</v>
+        <v>1.037431743697016</v>
       </c>
       <c r="L9">
-        <v>1.018179923658429</v>
+        <v>1.037730916735177</v>
       </c>
       <c r="M9">
-        <v>1.0125571151374</v>
+        <v>1.043106429300585</v>
       </c>
       <c r="N9">
-        <v>1.023120899912213</v>
+        <v>1.038121897669178</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.988710339108132</v>
+        <v>1.029413749592092</v>
       </c>
       <c r="D10">
-        <v>1.00887666631281</v>
+        <v>1.033233539234756</v>
       </c>
       <c r="E10">
-        <v>0.9987942223085132</v>
+        <v>1.033242970036935</v>
       </c>
       <c r="F10">
-        <v>0.990850170696233</v>
+        <v>1.038179216001277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037754667723281</v>
+        <v>1.03597292793918</v>
       </c>
       <c r="J10">
-        <v>1.01737915258997</v>
+        <v>1.035791403471579</v>
       </c>
       <c r="K10">
-        <v>1.023087478293677</v>
+        <v>1.036689051254029</v>
       </c>
       <c r="L10">
-        <v>1.013185281625249</v>
+        <v>1.036698448161976</v>
       </c>
       <c r="M10">
-        <v>1.005386616945064</v>
+        <v>1.041617046519934</v>
       </c>
       <c r="N10">
-        <v>1.018823947681667</v>
+        <v>1.037262346071443</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9854759066738854</v>
+        <v>1.028806290623346</v>
       </c>
       <c r="D11">
-        <v>1.006593934286768</v>
+        <v>1.032787972889885</v>
       </c>
       <c r="E11">
-        <v>0.995963295298849</v>
+        <v>1.032672035631992</v>
       </c>
       <c r="F11">
-        <v>0.9870187853136677</v>
+        <v>1.037410475024403</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036729319296545</v>
+        <v>1.035815435085012</v>
       </c>
       <c r="J11">
-        <v>1.015465641165912</v>
+        <v>1.035419473549106</v>
       </c>
       <c r="K11">
-        <v>1.021392560881093</v>
+        <v>1.036367024951294</v>
       </c>
       <c r="L11">
-        <v>1.010961741591198</v>
+        <v>1.036251520509911</v>
       </c>
       <c r="M11">
-        <v>1.002189731949626</v>
+        <v>1.040972357577841</v>
       </c>
       <c r="N11">
-        <v>1.016907718851905</v>
+        <v>1.036889887965819</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9842603554549998</v>
+        <v>1.028580728826633</v>
       </c>
       <c r="D12">
-        <v>1.005736988687193</v>
+        <v>1.032622532423284</v>
       </c>
       <c r="E12">
-        <v>0.9949006565284094</v>
+        <v>1.032460105598535</v>
       </c>
       <c r="F12">
-        <v>0.9855788390586624</v>
+        <v>1.037125069114671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036342531261727</v>
+        <v>1.03575675733455</v>
       </c>
       <c r="J12">
-        <v>1.014746112942338</v>
+        <v>1.035281282940768</v>
       </c>
       <c r="K12">
-        <v>1.020755096275905</v>
+        <v>1.036247345354344</v>
       </c>
       <c r="L12">
-        <v>1.010126208367652</v>
+        <v>1.036085533305653</v>
       </c>
       <c r="M12">
-        <v>1.000987641082163</v>
+        <v>1.040732925098357</v>
       </c>
       <c r="N12">
-        <v>1.016187168815722</v>
+        <v>1.036751501110967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9845217478339847</v>
+        <v>1.028629109168276</v>
       </c>
       <c r="D13">
-        <v>1.005921222727185</v>
+        <v>1.032658017107925</v>
       </c>
       <c r="E13">
-        <v>0.9951291084168953</v>
+        <v>1.032505558937315</v>
       </c>
       <c r="F13">
-        <v>0.9858884890106774</v>
+        <v>1.037186283374254</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036425770909428</v>
+        <v>1.035769351954921</v>
       </c>
       <c r="J13">
-        <v>1.01490085789812</v>
+        <v>1.035310927061045</v>
       </c>
       <c r="K13">
-        <v>1.020892198058401</v>
+        <v>1.036273019949454</v>
       </c>
       <c r="L13">
-        <v>1.010305875978624</v>
+        <v>1.03612113713163</v>
       </c>
       <c r="M13">
-        <v>1.001246169017821</v>
+        <v>1.040784282651377</v>
       </c>
       <c r="N13">
-        <v>1.016342133527091</v>
+        <v>1.036781187329295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9853757218112964</v>
+        <v>1.028787644069992</v>
       </c>
       <c r="D14">
-        <v>1.006523285885504</v>
+        <v>1.032774296243083</v>
       </c>
       <c r="E14">
-        <v>0.9958756872813813</v>
+        <v>1.032654514558099</v>
       </c>
       <c r="F14">
-        <v>0.9869001074777287</v>
+        <v>1.037386880453211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036697469656096</v>
+        <v>1.035810588390536</v>
       </c>
       <c r="J14">
-        <v>1.015406346076118</v>
+        <v>1.035408051467335</v>
       </c>
       <c r="K14">
-        <v>1.021340031140943</v>
+        <v>1.036357133513789</v>
       </c>
       <c r="L14">
-        <v>1.010892875077016</v>
+        <v>1.036237799509561</v>
       </c>
       <c r="M14">
-        <v>1.002090669945711</v>
+        <v>1.040952565326354</v>
       </c>
       <c r="N14">
-        <v>1.016848339556283</v>
+        <v>1.036878449663383</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9858999863538216</v>
+        <v>1.028885332684324</v>
       </c>
       <c r="D15">
-        <v>1.006893025770269</v>
+        <v>1.032845948001698</v>
       </c>
       <c r="E15">
-        <v>0.9963341895724666</v>
+        <v>1.032746309673976</v>
       </c>
       <c r="F15">
-        <v>0.987521142676814</v>
+        <v>1.0375104933148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036864079229082</v>
+        <v>1.035835971958766</v>
       </c>
       <c r="J15">
-        <v>1.015716619514214</v>
+        <v>1.03546788783683</v>
       </c>
       <c r="K15">
-        <v>1.021614898184849</v>
+        <v>1.036408950107289</v>
       </c>
       <c r="L15">
-        <v>1.011253256278301</v>
+        <v>1.036309681942965</v>
       </c>
       <c r="M15">
-        <v>1.002609031835951</v>
+        <v>1.04105625430492</v>
       </c>
       <c r="N15">
-        <v>1.017159053618248</v>
+        <v>1.036938371007386</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9889230575161533</v>
+        <v>1.029454075190333</v>
       </c>
       <c r="D16">
-        <v>1.009026921009492</v>
+        <v>1.033263118734683</v>
       </c>
       <c r="E16">
-        <v>0.9989805765524803</v>
+        <v>1.033280880703319</v>
       </c>
       <c r="F16">
-        <v>0.9911021462124544</v>
+        <v>1.038230254262579</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037821898980877</v>
+        <v>1.03598335525294</v>
       </c>
       <c r="J16">
-        <v>1.017504940635065</v>
+        <v>1.035816081688277</v>
       </c>
       <c r="K16">
-        <v>1.023198877468904</v>
+        <v>1.036710413966147</v>
       </c>
       <c r="L16">
-        <v>1.013331529483534</v>
+        <v>1.036728112262397</v>
       </c>
       <c r="M16">
-        <v>1.005596778004118</v>
+        <v>1.041659837121849</v>
       </c>
       <c r="N16">
-        <v>1.018949914360215</v>
+        <v>1.037287059334039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9907949817743558</v>
+        <v>1.029810966072438</v>
       </c>
       <c r="D17">
-        <v>1.010349831639647</v>
+        <v>1.033524909384454</v>
       </c>
       <c r="E17">
-        <v>1.000621424467241</v>
+        <v>1.033616452003941</v>
       </c>
       <c r="F17">
-        <v>0.9933195459370735</v>
+        <v>1.038681988513382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03841241409842</v>
+        <v>1.036075487472306</v>
       </c>
       <c r="J17">
-        <v>1.018611549620734</v>
+        <v>1.036034423727532</v>
       </c>
       <c r="K17">
-        <v>1.02417879217528</v>
+        <v>1.036899398194115</v>
       </c>
       <c r="L17">
-        <v>1.014618566627861</v>
+        <v>1.036990620131696</v>
       </c>
       <c r="M17">
-        <v>1.00744573045661</v>
+        <v>1.042038508617731</v>
       </c>
       <c r="N17">
-        <v>1.020058094857573</v>
+        <v>1.037505711444034</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9918783009094108</v>
+        <v>1.030019182434726</v>
       </c>
       <c r="D18">
-        <v>1.011115970626018</v>
+        <v>1.033677646869212</v>
       </c>
       <c r="E18">
-        <v>1.00157178082561</v>
+        <v>1.033812274442879</v>
       </c>
       <c r="F18">
-        <v>0.9946028218500774</v>
+        <v>1.038945566564258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038753215981394</v>
+        <v>1.036129112115704</v>
       </c>
       <c r="J18">
-        <v>1.019251686914908</v>
+        <v>1.036161753210828</v>
       </c>
       <c r="K18">
-        <v>1.024745547436849</v>
+        <v>1.037009587420021</v>
       </c>
       <c r="L18">
-        <v>1.015363438328379</v>
+        <v>1.037143749791373</v>
       </c>
       <c r="M18">
-        <v>1.008515372523872</v>
+        <v>1.042259402864667</v>
       </c>
       <c r="N18">
-        <v>1.020699141220129</v>
+        <v>1.037633221749802</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9922462577787389</v>
+        <v>1.030090186943096</v>
       </c>
       <c r="D19">
-        <v>1.011376285390159</v>
+        <v>1.033729733055713</v>
       </c>
       <c r="E19">
-        <v>1.001894704357736</v>
+        <v>1.033879059959304</v>
       </c>
       <c r="F19">
-        <v>0.9950387016500405</v>
+        <v>1.039035454982844</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038868810976852</v>
+        <v>1.036147377296677</v>
       </c>
       <c r="J19">
-        <v>1.01946906558392</v>
+        <v>1.036205164887281</v>
       </c>
       <c r="K19">
-        <v>1.024937990680326</v>
+        <v>1.037047151938724</v>
       </c>
       <c r="L19">
-        <v>1.015616444385688</v>
+        <v>1.037195965270473</v>
       </c>
       <c r="M19">
-        <v>1.008878620078957</v>
+        <v>1.042334725750139</v>
       </c>
       <c r="N19">
-        <v>1.020916828591785</v>
+        <v>1.037676695075814</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9905950308956006</v>
+        <v>1.029772670093194</v>
       </c>
       <c r="D20">
-        <v>1.010208467014912</v>
+        <v>1.033496817638435</v>
       </c>
       <c r="E20">
-        <v>1.000446076381694</v>
+        <v>1.033580439126305</v>
       </c>
       <c r="F20">
-        <v>0.993082690975845</v>
+        <v>1.038633512486973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038349435144049</v>
+        <v>1.036065614399758</v>
       </c>
       <c r="J20">
-        <v>1.018493375097631</v>
+        <v>1.036011000349659</v>
       </c>
       <c r="K20">
-        <v>1.024074156914436</v>
+        <v>1.036879126321755</v>
       </c>
       <c r="L20">
-        <v>1.014481086606596</v>
+        <v>1.036962454143627</v>
       </c>
       <c r="M20">
-        <v>1.007248273319046</v>
+        <v>1.041997878518035</v>
       </c>
       <c r="N20">
-        <v>1.019939752513092</v>
+        <v>1.037482254802278</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9851246443899562</v>
+        <v>1.028740957402135</v>
       </c>
       <c r="D21">
-        <v>1.006346246423317</v>
+        <v>1.032740053195197</v>
       </c>
       <c r="E21">
-        <v>0.995656149825858</v>
+        <v>1.032610646954836</v>
       </c>
       <c r="F21">
-        <v>0.986602682957377</v>
+        <v>1.037327805784115</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036617626804636</v>
+        <v>1.035798450195589</v>
       </c>
       <c r="J21">
-        <v>1.015257737887153</v>
+        <v>1.035379451828833</v>
       </c>
       <c r="K21">
-        <v>1.02120837649615</v>
+        <v>1.036332365945298</v>
       </c>
       <c r="L21">
-        <v>1.01072028776148</v>
+        <v>1.036203444742926</v>
       </c>
       <c r="M21">
-        <v>1.001842395944576</v>
+        <v>1.04090300934183</v>
       </c>
       <c r="N21">
-        <v>1.016699520326643</v>
+        <v>1.036849809410113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.981602977800162</v>
+        <v>1.028092715954183</v>
       </c>
       <c r="D22">
-        <v>1.003865389397694</v>
+        <v>1.032264608780572</v>
       </c>
       <c r="E22">
-        <v>0.9925799598586899</v>
+        <v>1.032001713147206</v>
       </c>
       <c r="F22">
-        <v>0.9824307144875473</v>
+        <v>1.036507658723997</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035494340911944</v>
+        <v>1.035629444422723</v>
       </c>
       <c r="J22">
-        <v>1.013172422957082</v>
+        <v>1.034982145332734</v>
       </c>
       <c r="K22">
-        <v>1.019360659123855</v>
+        <v>1.035988222091909</v>
       </c>
       <c r="L22">
-        <v>1.008299856352462</v>
+        <v>1.035726350962898</v>
       </c>
       <c r="M22">
-        <v>0.998358446200468</v>
+        <v>1.04021481665846</v>
       </c>
       <c r="N22">
-        <v>1.014611244010182</v>
+        <v>1.036451938693218</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9834779392210128</v>
+        <v>1.028436319304879</v>
       </c>
       <c r="D23">
-        <v>1.005185671300545</v>
+        <v>1.032516616013349</v>
       </c>
       <c r="E23">
-        <v>0.9942170298355908</v>
+        <v>1.032324443035098</v>
       </c>
       <c r="F23">
-        <v>0.9846519613670695</v>
+        <v>1.036942358131339</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036093164329518</v>
+        <v>1.035719134990431</v>
       </c>
       <c r="J23">
-        <v>1.014282864858729</v>
+        <v>1.035192786287736</v>
       </c>
       <c r="K23">
-        <v>1.020344646751676</v>
+        <v>1.03617069445109</v>
       </c>
       <c r="L23">
-        <v>1.009588435239062</v>
+        <v>1.035979255205866</v>
       </c>
       <c r="M23">
-        <v>1.000213700270484</v>
+        <v>1.040579622099834</v>
       </c>
       <c r="N23">
-        <v>1.015723262866698</v>
+        <v>1.036662878782536</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9906854064351795</v>
+        <v>1.029789974249659</v>
       </c>
       <c r="D24">
-        <v>1.010272360545488</v>
+        <v>1.033509510967561</v>
       </c>
       <c r="E24">
-        <v>1.000525329366554</v>
+        <v>1.033596711519493</v>
       </c>
       <c r="F24">
-        <v>0.9931897466656285</v>
+        <v>1.03865541644122</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038377903840145</v>
+        <v>1.036070075970135</v>
       </c>
       <c r="J24">
-        <v>1.01854678951548</v>
+        <v>1.036021584445434</v>
       </c>
       <c r="K24">
-        <v>1.024121451930221</v>
+        <v>1.036888286438352</v>
       </c>
       <c r="L24">
-        <v>1.01454322590889</v>
+        <v>1.036975181100339</v>
       </c>
       <c r="M24">
-        <v>1.007337522899764</v>
+        <v>1.04201623744443</v>
       </c>
       <c r="N24">
-        <v>1.019993242785542</v>
+        <v>1.037492853928683</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.998716404225691</v>
+        <v>1.031362693593843</v>
       </c>
       <c r="D25">
-        <v>1.015961033398133</v>
+        <v>1.034663252615268</v>
       </c>
       <c r="E25">
-        <v>1.007583772541841</v>
+        <v>1.035076610202938</v>
       </c>
       <c r="F25">
-        <v>1.002704193531553</v>
+        <v>1.040646820719614</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040887315002003</v>
+        <v>1.036472829575779</v>
       </c>
       <c r="J25">
-        <v>1.023287043841131</v>
+        <v>1.036982346440947</v>
       </c>
       <c r="K25">
-        <v>1.028316526460781</v>
+        <v>1.037719358663395</v>
       </c>
       <c r="L25">
-        <v>1.020065489985828</v>
+        <v>1.038131414631824</v>
       </c>
       <c r="M25">
-        <v>1.015260674922107</v>
+        <v>1.043684195326604</v>
       </c>
       <c r="N25">
-        <v>1.02474022881605</v>
+        <v>1.038454980316431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.032618576973103</v>
+        <v>1.004878476315699</v>
       </c>
       <c r="D2">
-        <v>1.035584673880938</v>
+        <v>1.020340147543935</v>
       </c>
       <c r="E2">
-        <v>1.036259756061105</v>
+        <v>1.013021429600416</v>
       </c>
       <c r="F2">
-        <v>1.042237979673527</v>
+        <v>1.01000788271062</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036790426248109</v>
+        <v>1.042782350719446</v>
       </c>
       <c r="J2">
-        <v>1.037747804950852</v>
+        <v>1.026914245682182</v>
       </c>
       <c r="K2">
-        <v>1.038380858729643</v>
+        <v>1.031523202090449</v>
       </c>
       <c r="L2">
-        <v>1.039054007935447</v>
+        <v>1.024302287673713</v>
       </c>
       <c r="M2">
-        <v>1.045015232607604</v>
+        <v>1.021329530581335</v>
       </c>
       <c r="N2">
-        <v>1.039221525865245</v>
+        <v>1.028372581699762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033531309452188</v>
+        <v>1.009222735249253</v>
       </c>
       <c r="D3">
-        <v>1.036254382546084</v>
+        <v>1.023434602199292</v>
       </c>
       <c r="E3">
-        <v>1.037120419450005</v>
+        <v>1.016866839685169</v>
       </c>
       <c r="F3">
-        <v>1.043394940543585</v>
+        <v>1.015160043295563</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037018912295743</v>
+        <v>1.044100145047139</v>
       </c>
       <c r="J3">
-        <v>1.038303094551655</v>
+        <v>1.029465098206755</v>
       </c>
       <c r="K3">
-        <v>1.038860363994916</v>
+        <v>1.033776162611196</v>
       </c>
       <c r="L3">
-        <v>1.03972410036771</v>
+        <v>1.027288360611758</v>
       </c>
       <c r="M3">
-        <v>1.045982077105118</v>
+        <v>1.025602554701459</v>
       </c>
       <c r="N3">
-        <v>1.039777604040948</v>
+        <v>1.030927056727506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03412229751514</v>
+        <v>1.011977035817871</v>
       </c>
       <c r="D4">
-        <v>1.036688034300578</v>
+        <v>1.025399505023481</v>
       </c>
       <c r="E4">
-        <v>1.037678057693334</v>
+        <v>1.019310126485383</v>
       </c>
       <c r="F4">
-        <v>1.044144330654435</v>
+        <v>1.01842831110758</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037165775952123</v>
+        <v>1.044927012858234</v>
       </c>
       <c r="J4">
-        <v>1.038662168026167</v>
+        <v>1.031079251748778</v>
       </c>
       <c r="K4">
-        <v>1.03917026027459</v>
+        <v>1.035200748429901</v>
       </c>
       <c r="L4">
-        <v>1.040157786149208</v>
+        <v>1.02918095031406</v>
       </c>
       <c r="M4">
-        <v>1.046607872162349</v>
+        <v>1.028309296202821</v>
       </c>
       <c r="N4">
-        <v>1.040137187440981</v>
+        <v>1.032543502552704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034370841174559</v>
+        <v>1.01312183919688</v>
       </c>
       <c r="D5">
-        <v>1.036870413396332</v>
+        <v>1.026216871377717</v>
       </c>
       <c r="E5">
-        <v>1.037912662732144</v>
+        <v>1.020326889624874</v>
       </c>
       <c r="F5">
-        <v>1.044459555787061</v>
+        <v>1.019787207645851</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037227281878971</v>
+        <v>1.045268594506843</v>
       </c>
       <c r="J5">
-        <v>1.038813065221411</v>
+        <v>1.031749388818382</v>
       </c>
       <c r="K5">
-        <v>1.039300449924562</v>
+        <v>1.035791918531128</v>
       </c>
       <c r="L5">
-        <v>1.040340128528706</v>
+        <v>1.029967414729982</v>
       </c>
       <c r="M5">
-        <v>1.046870999690087</v>
+        <v>1.029433778874755</v>
       </c>
       <c r="N5">
-        <v>1.040288298927549</v>
+        <v>1.033214591293813</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034412578134417</v>
+        <v>1.013313301652976</v>
       </c>
       <c r="D6">
-        <v>1.036901039829353</v>
+        <v>1.026353609712819</v>
       </c>
       <c r="E6">
-        <v>1.03795206411455</v>
+        <v>1.020497009417281</v>
       </c>
       <c r="F6">
-        <v>1.044512494113498</v>
+        <v>1.020014504832767</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037237595169001</v>
+        <v>1.045325598003121</v>
       </c>
       <c r="J6">
-        <v>1.038838398141889</v>
+        <v>1.031861419566337</v>
       </c>
       <c r="K6">
-        <v>1.039322303994885</v>
+        <v>1.035890732014142</v>
       </c>
       <c r="L6">
-        <v>1.040370745813237</v>
+        <v>1.030098935673802</v>
       </c>
       <c r="M6">
-        <v>1.046915182489836</v>
+        <v>1.029621810884198</v>
       </c>
       <c r="N6">
-        <v>1.04031366782368</v>
+        <v>1.03332678113828</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03412561820618</v>
+        <v>1.011992383615729</v>
       </c>
       <c r="D7">
-        <v>1.036690470978016</v>
+        <v>1.025410460454441</v>
       </c>
       <c r="E7">
-        <v>1.037681191815448</v>
+        <v>1.019323752894796</v>
       </c>
       <c r="F7">
-        <v>1.044148541995019</v>
+        <v>1.018446527240058</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037166598723437</v>
+        <v>1.04493160060202</v>
       </c>
       <c r="J7">
-        <v>1.038664184547982</v>
+        <v>1.031088239025332</v>
       </c>
       <c r="K7">
-        <v>1.03917200023264</v>
+        <v>1.03520867773446</v>
       </c>
       <c r="L7">
-        <v>1.040160222536161</v>
+        <v>1.02919149477553</v>
       </c>
       <c r="M7">
-        <v>1.046611387915518</v>
+        <v>1.028324373728756</v>
       </c>
       <c r="N7">
-        <v>1.040139206826488</v>
+        <v>1.032552502592222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032926958089893</v>
+        <v>1.006358678349822</v>
       </c>
       <c r="D8">
-        <v>1.035810941071202</v>
+        <v>1.021393852422561</v>
       </c>
       <c r="E8">
-        <v>1.036550469105514</v>
+        <v>1.014330537737994</v>
       </c>
       <c r="F8">
-        <v>1.042628822729855</v>
+        <v>1.011763020250708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03686784726237</v>
+        <v>1.043233147796381</v>
       </c>
       <c r="J8">
-        <v>1.037935516068383</v>
+        <v>1.027784023144304</v>
       </c>
       <c r="K8">
-        <v>1.038542987083995</v>
+        <v>1.032291623138599</v>
       </c>
       <c r="L8">
-        <v>1.039280449361676</v>
+        <v>1.025319829555791</v>
       </c>
       <c r="M8">
-        <v>1.045341944368662</v>
+        <v>1.022785976980788</v>
       </c>
       <c r="N8">
-        <v>1.039409503554068</v>
+        <v>1.029243594345644</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030817784683126</v>
+        <v>0.9959742895053145</v>
       </c>
       <c r="D9">
-        <v>1.034263490777815</v>
+        <v>1.014016277962786</v>
       </c>
       <c r="E9">
-        <v>1.034563646256555</v>
+        <v>1.00517017568788</v>
       </c>
       <c r="F9">
-        <v>1.039956705008889</v>
+        <v>0.9994551926251397</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036333906727899</v>
+        <v>1.040035212345152</v>
       </c>
       <c r="J9">
-        <v>1.036649736138475</v>
+        <v>1.021670011308967</v>
       </c>
       <c r="K9">
-        <v>1.037431743697016</v>
+        <v>1.026885971474508</v>
       </c>
       <c r="L9">
-        <v>1.037730916735177</v>
+        <v>1.018179923658429</v>
       </c>
       <c r="M9">
-        <v>1.043106429300585</v>
+        <v>1.0125571151374</v>
       </c>
       <c r="N9">
-        <v>1.038121897669178</v>
+        <v>1.023120899912213</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029413749592092</v>
+        <v>0.9887103391081317</v>
       </c>
       <c r="D10">
-        <v>1.033233539234756</v>
+        <v>1.008876666312809</v>
       </c>
       <c r="E10">
-        <v>1.033242970036935</v>
+        <v>0.9987942223085127</v>
       </c>
       <c r="F10">
-        <v>1.038179216001277</v>
+        <v>0.9908501706962323</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03597292793918</v>
+        <v>1.037754667723281</v>
       </c>
       <c r="J10">
-        <v>1.035791403471579</v>
+        <v>1.017379152589969</v>
       </c>
       <c r="K10">
-        <v>1.036689051254029</v>
+        <v>1.023087478293677</v>
       </c>
       <c r="L10">
-        <v>1.036698448161976</v>
+        <v>1.013185281625248</v>
       </c>
       <c r="M10">
-        <v>1.041617046519934</v>
+        <v>1.005386616945064</v>
       </c>
       <c r="N10">
-        <v>1.037262346071443</v>
+        <v>1.018823947681667</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028806290623346</v>
+        <v>0.9854759066738846</v>
       </c>
       <c r="D11">
-        <v>1.032787972889885</v>
+        <v>1.006593934286767</v>
       </c>
       <c r="E11">
-        <v>1.032672035631992</v>
+        <v>0.9959632952988483</v>
       </c>
       <c r="F11">
-        <v>1.037410475024403</v>
+        <v>0.9870187853136663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035815435085012</v>
+        <v>1.036729319296544</v>
       </c>
       <c r="J11">
-        <v>1.035419473549106</v>
+        <v>1.015465641165911</v>
       </c>
       <c r="K11">
-        <v>1.036367024951294</v>
+        <v>1.021392560881092</v>
       </c>
       <c r="L11">
-        <v>1.036251520509911</v>
+        <v>1.010961741591197</v>
       </c>
       <c r="M11">
-        <v>1.040972357577841</v>
+        <v>1.002189731949624</v>
       </c>
       <c r="N11">
-        <v>1.036889887965819</v>
+        <v>1.016907718851904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028580728826633</v>
+        <v>0.984260355455</v>
       </c>
       <c r="D12">
-        <v>1.032622532423284</v>
+        <v>1.005736988687193</v>
       </c>
       <c r="E12">
-        <v>1.032460105598535</v>
+        <v>0.9949006565284095</v>
       </c>
       <c r="F12">
-        <v>1.037125069114671</v>
+        <v>0.9855788390586625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03575675733455</v>
+        <v>1.036342531261727</v>
       </c>
       <c r="J12">
-        <v>1.035281282940768</v>
+        <v>1.014746112942339</v>
       </c>
       <c r="K12">
-        <v>1.036247345354344</v>
+        <v>1.020755096275905</v>
       </c>
       <c r="L12">
-        <v>1.036085533305653</v>
+        <v>1.010126208367652</v>
       </c>
       <c r="M12">
-        <v>1.040732925098357</v>
+        <v>1.000987641082164</v>
       </c>
       <c r="N12">
-        <v>1.036751501110967</v>
+        <v>1.016187168815722</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028629109168276</v>
+        <v>0.9845217478339841</v>
       </c>
       <c r="D13">
-        <v>1.032658017107925</v>
+        <v>1.005921222727184</v>
       </c>
       <c r="E13">
-        <v>1.032505558937315</v>
+        <v>0.9951291084168953</v>
       </c>
       <c r="F13">
-        <v>1.037186283374254</v>
+        <v>0.9858884890106775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035769351954921</v>
+        <v>1.036425770909428</v>
       </c>
       <c r="J13">
-        <v>1.035310927061045</v>
+        <v>1.01490085789812</v>
       </c>
       <c r="K13">
-        <v>1.036273019949454</v>
+        <v>1.0208921980584</v>
       </c>
       <c r="L13">
-        <v>1.03612113713163</v>
+        <v>1.010305875978623</v>
       </c>
       <c r="M13">
-        <v>1.040784282651377</v>
+        <v>1.001246169017821</v>
       </c>
       <c r="N13">
-        <v>1.036781187329295</v>
+        <v>1.016342133527091</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028787644069992</v>
+        <v>0.9853757218112967</v>
       </c>
       <c r="D14">
-        <v>1.032774296243083</v>
+        <v>1.006523285885504</v>
       </c>
       <c r="E14">
-        <v>1.032654514558099</v>
+        <v>0.9958756872813818</v>
       </c>
       <c r="F14">
-        <v>1.037386880453211</v>
+        <v>0.986900107477729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035810588390536</v>
+        <v>1.036697469656096</v>
       </c>
       <c r="J14">
-        <v>1.035408051467335</v>
+        <v>1.015406346076119</v>
       </c>
       <c r="K14">
-        <v>1.036357133513789</v>
+        <v>1.021340031140943</v>
       </c>
       <c r="L14">
-        <v>1.036237799509561</v>
+        <v>1.010892875077016</v>
       </c>
       <c r="M14">
-        <v>1.040952565326354</v>
+        <v>1.002090669945711</v>
       </c>
       <c r="N14">
-        <v>1.036878449663383</v>
+        <v>1.016848339556283</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028885332684324</v>
+        <v>0.9858999863538219</v>
       </c>
       <c r="D15">
-        <v>1.032845948001698</v>
+        <v>1.006893025770269</v>
       </c>
       <c r="E15">
-        <v>1.032746309673976</v>
+        <v>0.9963341895724671</v>
       </c>
       <c r="F15">
-        <v>1.0375104933148</v>
+        <v>0.9875211426768148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035835971958766</v>
+        <v>1.036864079229082</v>
       </c>
       <c r="J15">
-        <v>1.03546788783683</v>
+        <v>1.015716619514214</v>
       </c>
       <c r="K15">
-        <v>1.036408950107289</v>
+        <v>1.02161489818485</v>
       </c>
       <c r="L15">
-        <v>1.036309681942965</v>
+        <v>1.011253256278301</v>
       </c>
       <c r="M15">
-        <v>1.04105625430492</v>
+        <v>1.002609031835952</v>
       </c>
       <c r="N15">
-        <v>1.036938371007386</v>
+        <v>1.017159053618249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029454075190333</v>
+        <v>0.9889230575161541</v>
       </c>
       <c r="D16">
-        <v>1.033263118734683</v>
+        <v>1.009026921009493</v>
       </c>
       <c r="E16">
-        <v>1.033280880703319</v>
+        <v>0.9989805765524813</v>
       </c>
       <c r="F16">
-        <v>1.038230254262579</v>
+        <v>0.9911021462124555</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03598335525294</v>
+        <v>1.037821898980877</v>
       </c>
       <c r="J16">
-        <v>1.035816081688277</v>
+        <v>1.017504940635066</v>
       </c>
       <c r="K16">
-        <v>1.036710413966147</v>
+        <v>1.023198877468905</v>
       </c>
       <c r="L16">
-        <v>1.036728112262397</v>
+        <v>1.013331529483535</v>
       </c>
       <c r="M16">
-        <v>1.041659837121849</v>
+        <v>1.005596778004119</v>
       </c>
       <c r="N16">
-        <v>1.037287059334039</v>
+        <v>1.018949914360216</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029810966072438</v>
+        <v>0.9907949817743545</v>
       </c>
       <c r="D17">
-        <v>1.033524909384454</v>
+        <v>1.010349831639646</v>
       </c>
       <c r="E17">
-        <v>1.033616452003941</v>
+        <v>1.000621424467239</v>
       </c>
       <c r="F17">
-        <v>1.038681988513382</v>
+        <v>0.9933195459370719</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036075487472306</v>
+        <v>1.038412414098419</v>
       </c>
       <c r="J17">
-        <v>1.036034423727532</v>
+        <v>1.018611549620732</v>
       </c>
       <c r="K17">
-        <v>1.036899398194115</v>
+        <v>1.024178792175279</v>
       </c>
       <c r="L17">
-        <v>1.036990620131696</v>
+        <v>1.014618566627859</v>
       </c>
       <c r="M17">
-        <v>1.042038508617731</v>
+        <v>1.007445730456609</v>
       </c>
       <c r="N17">
-        <v>1.037505711444034</v>
+        <v>1.020058094857571</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030019182434726</v>
+        <v>0.9918783009094098</v>
       </c>
       <c r="D18">
-        <v>1.033677646869212</v>
+        <v>1.011115970626018</v>
       </c>
       <c r="E18">
-        <v>1.033812274442879</v>
+        <v>1.00157178082561</v>
       </c>
       <c r="F18">
-        <v>1.038945566564258</v>
+        <v>0.9946028218500771</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036129112115704</v>
+        <v>1.038753215981393</v>
       </c>
       <c r="J18">
-        <v>1.036161753210828</v>
+        <v>1.019251686914907</v>
       </c>
       <c r="K18">
-        <v>1.037009587420021</v>
+        <v>1.024745547436848</v>
       </c>
       <c r="L18">
-        <v>1.037143749791373</v>
+        <v>1.015363438328379</v>
       </c>
       <c r="M18">
-        <v>1.042259402864667</v>
+        <v>1.008515372523871</v>
       </c>
       <c r="N18">
-        <v>1.037633221749802</v>
+        <v>1.020699141220129</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030090186943096</v>
+        <v>0.9922462577787393</v>
       </c>
       <c r="D19">
-        <v>1.033729733055713</v>
+        <v>1.01137628539016</v>
       </c>
       <c r="E19">
-        <v>1.033879059959304</v>
+        <v>1.001894704357737</v>
       </c>
       <c r="F19">
-        <v>1.039035454982844</v>
+        <v>0.995038701650041</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036147377296677</v>
+        <v>1.038868810976852</v>
       </c>
       <c r="J19">
-        <v>1.036205164887281</v>
+        <v>1.019469065583921</v>
       </c>
       <c r="K19">
-        <v>1.037047151938724</v>
+        <v>1.024937990680326</v>
       </c>
       <c r="L19">
-        <v>1.037195965270473</v>
+        <v>1.015616444385689</v>
       </c>
       <c r="M19">
-        <v>1.042334725750139</v>
+        <v>1.008878620078957</v>
       </c>
       <c r="N19">
-        <v>1.037676695075814</v>
+        <v>1.020916828591786</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029772670093194</v>
+        <v>0.9905950308956</v>
       </c>
       <c r="D20">
-        <v>1.033496817638435</v>
+        <v>1.010208467014911</v>
       </c>
       <c r="E20">
-        <v>1.033580439126305</v>
+        <v>1.000446076381693</v>
       </c>
       <c r="F20">
-        <v>1.038633512486973</v>
+        <v>0.993082690975844</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036065614399758</v>
+        <v>1.038349435144048</v>
       </c>
       <c r="J20">
-        <v>1.036011000349659</v>
+        <v>1.01849337509763</v>
       </c>
       <c r="K20">
-        <v>1.036879126321755</v>
+        <v>1.024074156914436</v>
       </c>
       <c r="L20">
-        <v>1.036962454143627</v>
+        <v>1.014481086606595</v>
       </c>
       <c r="M20">
-        <v>1.041997878518035</v>
+        <v>1.007248273319045</v>
       </c>
       <c r="N20">
-        <v>1.037482254802278</v>
+        <v>1.019939752513092</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028740957402135</v>
+        <v>0.9851246443899555</v>
       </c>
       <c r="D21">
-        <v>1.032740053195197</v>
+        <v>1.006346246423316</v>
       </c>
       <c r="E21">
-        <v>1.032610646954836</v>
+        <v>0.9956561498258573</v>
       </c>
       <c r="F21">
-        <v>1.037327805784115</v>
+        <v>0.986602682957377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035798450195589</v>
+        <v>1.036617626804636</v>
       </c>
       <c r="J21">
-        <v>1.035379451828833</v>
+        <v>1.015257737887152</v>
       </c>
       <c r="K21">
-        <v>1.036332365945298</v>
+        <v>1.02120837649615</v>
       </c>
       <c r="L21">
-        <v>1.036203444742926</v>
+        <v>1.010720287761479</v>
       </c>
       <c r="M21">
-        <v>1.04090300934183</v>
+        <v>1.001842395944576</v>
       </c>
       <c r="N21">
-        <v>1.036849809410113</v>
+        <v>1.016699520326642</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028092715954183</v>
+        <v>0.9816029778001631</v>
       </c>
       <c r="D22">
-        <v>1.032264608780572</v>
+        <v>1.003865389397695</v>
       </c>
       <c r="E22">
-        <v>1.032001713147206</v>
+        <v>0.9925799598586909</v>
       </c>
       <c r="F22">
-        <v>1.036507658723997</v>
+        <v>0.9824307144875484</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035629444422723</v>
+        <v>1.035494340911944</v>
       </c>
       <c r="J22">
-        <v>1.034982145332734</v>
+        <v>1.013172422957083</v>
       </c>
       <c r="K22">
-        <v>1.035988222091909</v>
+        <v>1.019360659123856</v>
       </c>
       <c r="L22">
-        <v>1.035726350962898</v>
+        <v>1.008299856352463</v>
       </c>
       <c r="M22">
-        <v>1.04021481665846</v>
+        <v>0.998358446200469</v>
       </c>
       <c r="N22">
-        <v>1.036451938693218</v>
+        <v>1.014611244010183</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028436319304879</v>
+        <v>0.9834779392210141</v>
       </c>
       <c r="D23">
-        <v>1.032516616013349</v>
+        <v>1.005185671300546</v>
       </c>
       <c r="E23">
-        <v>1.032324443035098</v>
+        <v>0.9942170298355923</v>
       </c>
       <c r="F23">
-        <v>1.036942358131339</v>
+        <v>0.984651961367071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035719134990431</v>
+        <v>1.036093164329519</v>
       </c>
       <c r="J23">
-        <v>1.035192786287736</v>
+        <v>1.01428286485873</v>
       </c>
       <c r="K23">
-        <v>1.03617069445109</v>
+        <v>1.020344646751677</v>
       </c>
       <c r="L23">
-        <v>1.035979255205866</v>
+        <v>1.009588435239063</v>
       </c>
       <c r="M23">
-        <v>1.040579622099834</v>
+        <v>1.000213700270485</v>
       </c>
       <c r="N23">
-        <v>1.036662878782536</v>
+        <v>1.0157232628667</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029789974249659</v>
+        <v>0.9906854064351788</v>
       </c>
       <c r="D24">
-        <v>1.033509510967561</v>
+        <v>1.010272360545487</v>
       </c>
       <c r="E24">
-        <v>1.033596711519493</v>
+        <v>1.000525329366553</v>
       </c>
       <c r="F24">
-        <v>1.03865541644122</v>
+        <v>0.9931897466656276</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036070075970135</v>
+        <v>1.038377903840144</v>
       </c>
       <c r="J24">
-        <v>1.036021584445434</v>
+        <v>1.018546789515479</v>
       </c>
       <c r="K24">
-        <v>1.036888286438352</v>
+        <v>1.02412145193022</v>
       </c>
       <c r="L24">
-        <v>1.036975181100339</v>
+        <v>1.014543225908888</v>
       </c>
       <c r="M24">
-        <v>1.04201623744443</v>
+        <v>1.007337522899763</v>
       </c>
       <c r="N24">
-        <v>1.037492853928683</v>
+        <v>1.019993242785541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031362693593843</v>
+        <v>0.9987164042256903</v>
       </c>
       <c r="D25">
-        <v>1.034663252615268</v>
+        <v>1.015961033398133</v>
       </c>
       <c r="E25">
-        <v>1.035076610202938</v>
+        <v>1.00758377254184</v>
       </c>
       <c r="F25">
-        <v>1.040646820719614</v>
+        <v>1.002704193531553</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036472829575779</v>
+        <v>1.040887315002003</v>
       </c>
       <c r="J25">
-        <v>1.036982346440947</v>
+        <v>1.023287043841131</v>
       </c>
       <c r="K25">
-        <v>1.037719358663395</v>
+        <v>1.028316526460781</v>
       </c>
       <c r="L25">
-        <v>1.038131414631824</v>
+        <v>1.020065489985827</v>
       </c>
       <c r="M25">
-        <v>1.043684195326604</v>
+        <v>1.015260674922107</v>
       </c>
       <c r="N25">
-        <v>1.038454980316431</v>
+        <v>1.02474022881605</v>
       </c>
     </row>
   </sheetData>
